--- a/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
@@ -1,73 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="22266" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>УНП</t>
-  </si>
-  <si>
-    <t>КлючНик</t>
-  </si>
-  <si>
-    <t>Марина</t>
-  </si>
-  <si>
-    <t>Экогрибы</t>
-  </si>
-  <si>
-    <t>Сатурн</t>
-  </si>
-  <si>
-    <t>Мандарин</t>
-  </si>
-  <si>
-    <t>ЗАО "Евроопт"</t>
-  </si>
-  <si>
-    <t>Соседи</t>
-  </si>
-  <si>
-    <t>Виталюр</t>
-  </si>
-  <si>
-    <t>Копеечка</t>
-  </si>
-  <si>
-    <t>Сумма</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КлючНик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экогрибы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сатурн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мандарин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАО "Евроопт"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соседи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виталюр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копеечка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручная проверка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +117,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -124,14 +131,18 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,22 +407,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,95 +440,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2"/>
       <c r="C2" s="3">
         <v>45188</v>
       </c>
       <c r="D2">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3"/>
       <c r="C3" s="3">
         <v>45219</v>
       </c>
       <c r="D3">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.65">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4"/>
       <c r="C4" s="3">
         <v>45159</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5"/>
       <c r="C5" s="3">
         <v>45191</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6"/>
       <c r="C6" s="3">
         <v>45191</v>
       </c>
       <c r="D6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7"/>
       <c r="C7" s="3">
         <v>45189</v>
       </c>
       <c r="D7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8"/>
       <c r="C8" s="3">
         <v>45187</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9"/>
       <c r="C9" s="3">
         <v>45199</v>
       </c>
       <c r="D9">
         <v>1700</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -530,5 +574,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t xml:space="preserve">Ручная проверка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590222567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200170042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200143273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100921458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100920954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390332837</t>
   </si>
 </sst>
 </file>
@@ -444,7 +465,9 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="3">
         <v>45188</v>
       </c>
@@ -452,7 +475,7 @@
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,7 +497,9 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="3">
         <v>45159</v>
       </c>
@@ -489,7 +514,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="3">
         <v>45191</v>
       </c>
@@ -504,7 +531,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="3">
         <v>45191</v>
       </c>
@@ -534,7 +563,9 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="3">
         <v>45187</v>
       </c>
@@ -549,7 +580,9 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="3">
         <v>45199</v>
       </c>
@@ -557,7 +590,7 @@
         <v>1700</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">390332837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не присвоен</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,9 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="3">
         <v>45219</v>
       </c>
@@ -490,16 +498,14 @@
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.65">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" s="3">
         <v>45159</v>
       </c>
@@ -507,16 +513,14 @@
         <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" s="3">
         <v>45191</v>
       </c>
@@ -524,16 +528,14 @@
         <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" s="3">
         <v>45191</v>
       </c>
@@ -541,14 +543,16 @@
         <v>3000</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="3">
         <v>45189</v>
       </c>
@@ -556,16 +560,14 @@
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" s="3">
         <v>45187</v>
       </c>
@@ -573,7 +575,7 @@
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>45199</v>
@@ -590,18 +592,24 @@
         <v>1700</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="3">
         <v>45134</v>
       </c>
       <c r="D10">
         <v>900</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/TaxpayerAlerter.DAL/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="25">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
